--- a/Additional Stats Cases.xlsx
+++ b/Additional Stats Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\FPAC prep\Boot Camp Materials\Class 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719E16FC-77EE-4D02-BFAF-618501B61612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2765D303-69B5-4293-BD3E-4533DE768EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
   <si>
     <t>Additional Stats Cases</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>If this is too much, then insert an additional column to create a cumulative count of wins/losses and resets to 0.  Then use Max formula at the bottom.</t>
+  </si>
+  <si>
+    <t>Loss = 1</t>
+  </si>
+  <si>
+    <t>{=MAX(FREQUENCY(IF($B47:</t>
+  </si>
+  <si>
+    <t>)</t>
   </si>
 </sst>
 </file>
@@ -1213,9 +1222,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="86" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -1591,7 +1600,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1730,7 +1742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>19</v>
       </c>
@@ -1738,7 +1750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="11">
         <v>20</v>
       </c>
@@ -1746,8 +1758,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B68" s="13">
         <f t="array" ref="B68">MAX(FREQUENCY(IF($B$47:$B$66="Win",$A$47:$A$66),IF($B$47:$B$66="Win",0,$A$47:$A$66)))</f>
         <v>5</v>
@@ -1755,8 +1767,11 @@
       <c r="C68" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B69" s="14">
         <f t="array" ref="B69">MAX(FREQUENCY(IF($B$47:$B$66="Loss",$A$47:$A$66),IF($B$47:$B$66="Loss",0,$A$47:$A$66)))</f>
         <v>3</v>
@@ -1765,7 +1780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>21</v>
       </c>
